--- a/SCF/files/导入发票模板.xlsx
+++ b/SCF/files/导入发票模板.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="11940"/>
+    <workbookView windowWidth="21000" windowHeight="9460"/>
   </bookViews>
   <sheets>
     <sheet name="普票" sheetId="1" r:id="rId1"/>
@@ -59,8 +59,8 @@
   <numFmts count="5">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
   </numFmts>
   <fonts count="22">
@@ -88,6 +88,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -108,16 +123,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -196,7 +204,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -204,14 +212,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -240,6 +240,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -252,25 +270,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -282,13 +324,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -300,7 +336,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -312,12 +360,42 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -330,97 +408,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -454,6 +454,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -506,17 +521,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -529,17 +540,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -548,145 +548,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1069,19 +1069,19 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="$A3:$XFD10"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="1"/>
   <cols>
-    <col min="2" max="2" width="16.375" customWidth="1"/>
-    <col min="3" max="3" width="14.875" customWidth="1"/>
-    <col min="4" max="4" width="15.275" customWidth="1"/>
-    <col min="5" max="5" width="16.275" customWidth="1"/>
+    <col min="2" max="2" width="16.3727272727273" customWidth="1"/>
+    <col min="3" max="3" width="14.8727272727273" customWidth="1"/>
+    <col min="4" max="4" width="15.2727272727273" customWidth="1"/>
+    <col min="5" max="5" width="16.2727272727273" customWidth="1"/>
     <col min="6" max="6" width="14" customWidth="1"/>
-    <col min="7" max="7" width="18.5416666666667" customWidth="1"/>
-    <col min="8" max="8" width="11.25" style="5" customWidth="1"/>
-    <col min="9" max="9" width="13.1833333333333" customWidth="1"/>
+    <col min="7" max="7" width="18.5454545454545" customWidth="1"/>
+    <col min="8" max="8" width="11.2545454545455" style="5" customWidth="1"/>
+    <col min="9" max="9" width="13.1818181818182" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="44" customHeight="1" spans="1:9">
@@ -1145,15 +1145,15 @@
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="1"/>
   <cols>
-    <col min="1" max="1" width="7.09166666666667" customWidth="1"/>
-    <col min="2" max="2" width="10.275" customWidth="1"/>
-    <col min="3" max="3" width="10.3666666666667" customWidth="1"/>
-    <col min="4" max="4" width="17.1833333333333" customWidth="1"/>
-    <col min="5" max="5" width="16.275" customWidth="1"/>
+    <col min="1" max="1" width="7.09090909090909" customWidth="1"/>
+    <col min="2" max="2" width="10.2727272727273" customWidth="1"/>
+    <col min="3" max="3" width="10.3636363636364" customWidth="1"/>
+    <col min="4" max="4" width="17.1818181818182" customWidth="1"/>
+    <col min="5" max="5" width="16.2727272727273" customWidth="1"/>
     <col min="6" max="6" width="14" customWidth="1"/>
-    <col min="8" max="8" width="12.1833333333333" customWidth="1"/>
+    <col min="8" max="8" width="12.1818181818182" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="44" customHeight="1" spans="1:9">
